--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Final_Parameters/3i Infotech Ltd_semi_final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Final_Parameters/3i Infotech Ltd_semi_final.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\3i Infotech Ltd\Pruned_Excel\Final_Parameters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C95CE0-CA24-4524-9009-EEABAAD7603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance_Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name=" Balance_Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Cash_Flow" sheetId="2" r:id="rId2"/>
     <sheet name="Profit_Loss" sheetId="3" r:id="rId3"/>
     <sheet name="Quarterly" sheetId="4" r:id="rId4"/>
     <sheet name="Ratio" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -458,8 +464,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,13 +528,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -566,7 +580,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -600,6 +614,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -634,9 +649,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -809,14 +825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -877,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>86.59999999999999</v>
+        <v>86.6</v>
       </c>
       <c r="H2">
         <v>447.06</v>
@@ -898,12 +914,12 @@
         <v>447.06</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>153.05</v>
+        <v>153.05000000000001</v>
       </c>
       <c r="C3">
         <v>219.17</v>
@@ -921,10 +937,10 @@
         <v>111.78</v>
       </c>
       <c r="H3">
-        <v>801.3099999999999</v>
+        <v>801.31</v>
       </c>
       <c r="I3">
-        <v>-9.630000000000001</v>
+        <v>-9.6300000000000008</v>
       </c>
       <c r="J3">
         <v>209.38</v>
@@ -936,21 +952,21 @@
         <v>469.27</v>
       </c>
       <c r="M3">
-        <v>801.3099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>801.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>156.3</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="C4">
-        <v>305.35</v>
+        <v>305.35000000000002</v>
       </c>
       <c r="D4">
-        <v>305.35</v>
+        <v>305.35000000000002</v>
       </c>
       <c r="E4">
         <v>461.65</v>
@@ -959,7 +975,7 @@
         <v>12.97</v>
       </c>
       <c r="G4">
-        <v>133.11</v>
+        <v>133.11000000000001</v>
       </c>
       <c r="H4">
         <v>1131.73</v>
@@ -980,7 +996,7 @@
         <v>1131.73</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1037,7 @@
         <v>2069.52</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1078,7 @@
         <v>2657.52</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1097,13 +1113,13 @@
         <v>2048.42</v>
       </c>
       <c r="L7">
-        <v>796.6900000000001</v>
+        <v>796.69</v>
       </c>
       <c r="M7">
         <v>2845.11</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1136,7 @@
         <v>1068.24</v>
       </c>
       <c r="F8">
-        <v>318.03</v>
+        <v>318.02999999999997</v>
       </c>
       <c r="G8">
         <v>1007.63</v>
@@ -1135,7 +1151,7 @@
         <v>217.83</v>
       </c>
       <c r="K8">
-        <v>2408.2</v>
+        <v>2408.1999999999998</v>
       </c>
       <c r="L8">
         <v>861.95</v>
@@ -1144,7 +1160,7 @@
         <v>3270.15</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1179,18 +1195,18 @@
         <v>3009.22</v>
       </c>
       <c r="L9">
-        <v>569.33</v>
+        <v>569.33000000000004</v>
       </c>
       <c r="M9">
         <v>3578.55</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10">
-        <v>636.55</v>
+        <v>636.54999999999995</v>
       </c>
       <c r="C10">
         <v>397.11</v>
@@ -1199,7 +1215,7 @@
         <v>397.11</v>
       </c>
       <c r="E10">
-        <v>1033.66</v>
+        <v>1033.6600000000001</v>
       </c>
       <c r="F10">
         <v>804.76</v>
@@ -1226,7 +1242,7 @@
         <v>4003.04</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1234,13 +1250,13 @@
         <v>637.64</v>
       </c>
       <c r="C11">
-        <v>-40.34</v>
+        <v>-40.340000000000003</v>
       </c>
       <c r="D11">
-        <v>-40.34</v>
+        <v>-40.340000000000003</v>
       </c>
       <c r="E11">
-        <v>597.3</v>
+        <v>597.29999999999995</v>
       </c>
       <c r="F11">
         <v>482.14</v>
@@ -1267,7 +1283,7 @@
         <v>4488.99</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>668.75</v>
       </c>
       <c r="C12">
-        <v>-1079.11</v>
+        <v>-1079.1099999999999</v>
       </c>
       <c r="D12">
         <v>-953.61</v>
@@ -1308,7 +1324,7 @@
         <v>3723.35</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1325,7 +1341,7 @@
         <v>730.72</v>
       </c>
       <c r="F13">
-        <v>1191.35</v>
+        <v>1191.3499999999999</v>
       </c>
       <c r="G13">
         <v>1329.03</v>
@@ -1349,7 +1365,7 @@
         <v>2501.37</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1366,16 +1382,16 @@
         <v>532.01</v>
       </c>
       <c r="F14">
-        <v>1118.09</v>
+        <v>1118.0899999999999</v>
       </c>
       <c r="G14">
-        <v>1223.11</v>
+        <v>1223.1099999999999</v>
       </c>
       <c r="H14">
         <v>2485.84</v>
       </c>
       <c r="I14">
-        <v>142.48</v>
+        <v>142.47999999999999</v>
       </c>
       <c r="J14">
         <v>368.29</v>
@@ -1384,13 +1400,13 @@
         <v>1793.02</v>
       </c>
       <c r="L14">
-        <v>692.8200000000001</v>
+        <v>692.82</v>
       </c>
       <c r="M14">
         <v>2485.84</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1410,13 +1426,13 @@
         <v>1119.43</v>
       </c>
       <c r="G15">
-        <v>1226.63</v>
+        <v>1226.6300000000001</v>
       </c>
       <c r="H15">
         <v>2344.48</v>
       </c>
       <c r="I15">
-        <v>140.95</v>
+        <v>140.94999999999999</v>
       </c>
       <c r="J15">
         <v>366.25</v>
@@ -1425,13 +1441,13 @@
         <v>1680.92</v>
       </c>
       <c r="L15">
-        <v>663.5599999999999</v>
+        <v>663.56</v>
       </c>
       <c r="M15">
         <v>2344.48</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1451,13 +1467,13 @@
         <v>1147.08</v>
       </c>
       <c r="G16">
-        <v>1228.12</v>
+        <v>1228.1199999999999</v>
       </c>
       <c r="H16">
         <v>2458.06</v>
       </c>
       <c r="I16">
-        <v>138.64</v>
+        <v>138.63999999999999</v>
       </c>
       <c r="J16">
         <v>363.3</v>
@@ -1472,7 +1488,7 @@
         <v>2458.06</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1480,10 +1496,10 @@
         <v>2047.16</v>
       </c>
       <c r="C17">
-        <v>-1128.16</v>
+        <v>-1128.1600000000001</v>
       </c>
       <c r="D17">
-        <v>-1128.16</v>
+        <v>-1128.1600000000001</v>
       </c>
       <c r="E17">
         <v>919</v>
@@ -1507,13 +1523,13 @@
         <v>1775.45</v>
       </c>
       <c r="L17">
-        <v>800.8200000000001</v>
+        <v>800.82</v>
       </c>
       <c r="M17">
         <v>2576.27</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>1172.32</v>
       </c>
       <c r="H18">
-        <v>2563.05</v>
+        <v>2563.0500000000002</v>
       </c>
       <c r="I18">
         <v>78.34</v>
@@ -1551,10 +1567,10 @@
         <v>1122.57</v>
       </c>
       <c r="M18">
-        <v>2563.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2563.0500000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1589,13 +1605,13 @@
         <v>1522.53</v>
       </c>
       <c r="L19">
-        <v>657.9299999999999</v>
+        <v>657.93</v>
       </c>
       <c r="M19">
         <v>2180.46</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1631,7 @@
         <v>1097.23</v>
       </c>
       <c r="G20">
-        <v>1188.87</v>
+        <v>1188.8699999999999</v>
       </c>
       <c r="H20">
         <v>2191.58</v>
@@ -1636,7 +1652,7 @@
         <v>2191.58</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1650,7 +1666,7 @@
         <v>-81.97</v>
       </c>
       <c r="E21">
-        <v>87.26000000000001</v>
+        <v>87.26</v>
       </c>
       <c r="F21">
         <v>236.61</v>
@@ -1671,7 +1687,7 @@
         <v>344.56</v>
       </c>
       <c r="L21">
-        <v>152.89</v>
+        <v>152.88999999999999</v>
       </c>
       <c r="M21">
         <v>497.45</v>
@@ -1683,14 +1699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1719,7 +1735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1764,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1759,10 +1775,10 @@
         <v>5.16</v>
       </c>
       <c r="D3">
-        <v>-74.45999999999999</v>
+        <v>-74.459999999999994</v>
       </c>
       <c r="E3">
-        <v>307.59</v>
+        <v>307.58999999999997</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1777,7 +1793,7 @@
         <v>246.21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1822,7 @@
         <v>60.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1832,10 +1848,10 @@
         <v>60.45</v>
       </c>
       <c r="I5">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1858,13 +1874,13 @@
         <v>3.37</v>
       </c>
       <c r="H6">
-        <v>32.66</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="I6">
         <v>36.03</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1893,7 +1909,7 @@
         <v>34.28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1916,13 +1932,13 @@
         <v>59.49</v>
       </c>
       <c r="H8">
-        <v>19.26</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="I8">
         <v>78.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1951,7 +1967,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +1975,7 @@
         <v>-379.45</v>
       </c>
       <c r="C10">
-        <v>36.45</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="D10">
         <v>-39.79</v>
@@ -1980,7 +1996,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1988,10 +2004,10 @@
         <v>-417.92</v>
       </c>
       <c r="C11">
-        <v>-72.54000000000001</v>
+        <v>-72.540000000000006</v>
       </c>
       <c r="D11">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E11">
         <v>77.52</v>
@@ -2009,7 +2025,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2017,13 +2033,13 @@
         <v>-343.56</v>
       </c>
       <c r="C12">
-        <v>73.98999999999999</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="D12">
         <v>-3.19</v>
       </c>
       <c r="E12">
-        <v>-79.31999999999999</v>
+        <v>-79.319999999999993</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2038,7 +2054,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2067,7 +2083,7 @@
         <v>20.65</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2096,12 +2112,12 @@
         <v>94.81</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15">
-        <v>-86.70999999999999</v>
+        <v>-86.71</v>
       </c>
       <c r="C15">
         <v>82.2</v>
@@ -2110,7 +2126,7 @@
         <v>1.29</v>
       </c>
       <c r="E15">
-        <v>-146.08</v>
+        <v>-146.08000000000001</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2125,7 +2141,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2154,7 +2170,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2180,10 +2196,10 @@
         <v>79.47</v>
       </c>
       <c r="I17">
-        <v>67.23999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>67.239999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2212,7 +2228,7 @@
         <v>637.53</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2238,10 +2254,10 @@
         <v>637.53</v>
       </c>
       <c r="I19">
-        <v>86.15000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>86.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2270,7 +2286,7 @@
         <v>40.51</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2305,14 +2321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2380,7 +2396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2394,22 +2410,22 @@
         <v>207.03</v>
       </c>
       <c r="E2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F2">
         <v>209.33</v>
       </c>
       <c r="G2">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="H2">
-        <v>8.130000000000001</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="I2">
         <v>10.69</v>
       </c>
       <c r="J2">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="K2">
         <v>13.88</v>
@@ -2448,18 +2464,18 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>276.03</v>
+        <v>276.02999999999997</v>
       </c>
       <c r="C3">
-        <v>276.03</v>
+        <v>276.02999999999997</v>
       </c>
       <c r="D3">
-        <v>276.03</v>
+        <v>276.02999999999997</v>
       </c>
       <c r="E3">
         <v>5.7</v>
@@ -2492,7 +2508,7 @@
         <v>41</v>
       </c>
       <c r="O3">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="P3">
         <v>0.83</v>
@@ -2504,10 +2520,10 @@
         <v>38.25</v>
       </c>
       <c r="S3">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="T3">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="U3">
         <v>7.41</v>
@@ -2516,7 +2532,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2551,7 +2567,7 @@
         <v>41.94</v>
       </c>
       <c r="L4">
-        <v>296.04</v>
+        <v>296.04000000000002</v>
       </c>
       <c r="M4">
         <v>48.96</v>
@@ -2572,10 +2588,10 @@
         <v>47.35</v>
       </c>
       <c r="S4">
-        <v>64.26000000000001</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="T4">
-        <v>64.26000000000001</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="U4">
         <v>11.41</v>
@@ -2584,7 +2600,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2637,13 +2653,13 @@
         <v>3.45</v>
       </c>
       <c r="R5">
-        <v>95.56999999999999</v>
+        <v>95.57</v>
       </c>
       <c r="S5">
-        <v>95.51000000000001</v>
+        <v>95.51</v>
       </c>
       <c r="T5">
-        <v>95.51000000000001</v>
+        <v>95.51</v>
       </c>
       <c r="U5">
         <v>7.32</v>
@@ -2652,7 +2668,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2699,7 +2715,7 @@
         <v>0.03</v>
       </c>
       <c r="P6">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q6">
         <v>2.39</v>
@@ -2720,7 +2736,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2752,7 +2768,7 @@
         <v>94.33</v>
       </c>
       <c r="K7">
-        <v>-143.11</v>
+        <v>-143.11000000000001</v>
       </c>
       <c r="L7">
         <v>396.53</v>
@@ -2788,7 +2804,7 @@
         <v>-5.9</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2808,10 +2824,10 @@
         <v>578.62</v>
       </c>
       <c r="G8">
-        <v>86.959</v>
+        <v>86.959000000000003</v>
       </c>
       <c r="H8">
-        <v>94.06999999999999</v>
+        <v>94.07</v>
       </c>
       <c r="I8">
         <v>133.38</v>
@@ -2856,7 +2872,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2876,7 +2892,7 @@
         <v>540.62</v>
       </c>
       <c r="G9">
-        <v>86.959</v>
+        <v>86.959000000000003</v>
       </c>
       <c r="H9">
         <v>235.72</v>
@@ -2885,7 +2901,7 @@
         <v>206.14</v>
       </c>
       <c r="J9">
-        <v>90.01000000000001</v>
+        <v>90.01</v>
       </c>
       <c r="K9">
         <v>174</v>
@@ -2915,7 +2931,7 @@
         <v>-311.73</v>
       </c>
       <c r="T9">
-        <v>-326.15</v>
+        <v>-326.14999999999998</v>
       </c>
       <c r="U9">
         <v>-17.37</v>
@@ -2924,7 +2940,7 @@
         <v>-17.37</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2944,13 +2960,13 @@
         <v>416.19</v>
       </c>
       <c r="G10">
-        <v>86.959</v>
+        <v>86.959000000000003</v>
       </c>
       <c r="H10">
         <v>223.29</v>
       </c>
       <c r="I10">
-        <v>284.1</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="J10">
         <v>224.64</v>
@@ -2974,7 +2990,7 @@
         <v>0.02</v>
       </c>
       <c r="Q10">
-        <v>8.869999999999999</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="R10">
         <v>-255.36</v>
@@ -2992,7 +3008,7 @@
         <v>-5.92</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3006,19 +3022,19 @@
         <v>326.5</v>
       </c>
       <c r="E11">
-        <v>68.81999999999999</v>
+        <v>68.819999999999993</v>
       </c>
       <c r="F11">
         <v>395.32</v>
       </c>
       <c r="G11">
-        <v>86.959</v>
+        <v>86.959000000000003</v>
       </c>
       <c r="H11">
         <v>211.63</v>
       </c>
       <c r="I11">
-        <v>300.22</v>
+        <v>300.22000000000003</v>
       </c>
       <c r="J11">
         <v>236.33</v>
@@ -3039,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>-17.67</v>
+        <v>-17.670000000000002</v>
       </c>
       <c r="Q11">
         <v>-13.55</v>
@@ -3060,7 +3076,7 @@
         <v>-7.78</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3080,7 +3096,7 @@
         <v>403.81</v>
       </c>
       <c r="G12">
-        <v>86.959</v>
+        <v>86.959000000000003</v>
       </c>
       <c r="H12">
         <v>217.68</v>
@@ -3128,7 +3144,7 @@
         <v>-18.25</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3158,7 @@
         <v>345.09</v>
       </c>
       <c r="E13">
-        <v>84.29000000000001</v>
+        <v>84.29</v>
       </c>
       <c r="F13">
         <v>429.38</v>
@@ -3163,7 +3179,7 @@
         <v>109.89</v>
       </c>
       <c r="L13">
-        <v>654.92</v>
+        <v>654.91999999999996</v>
       </c>
       <c r="M13">
         <v>-225.54</v>
@@ -3181,13 +3197,13 @@
         <v>91.7</v>
       </c>
       <c r="R13">
-        <v>-539.7</v>
+        <v>-539.70000000000005</v>
       </c>
       <c r="S13">
-        <v>-539.7</v>
+        <v>-539.70000000000005</v>
       </c>
       <c r="T13">
-        <v>-539.7</v>
+        <v>-539.70000000000005</v>
       </c>
       <c r="U13">
         <v>-8.67</v>
@@ -3196,7 +3212,7 @@
         <v>-8.67</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3216,13 +3232,13 @@
         <v>344.87</v>
       </c>
       <c r="G14">
-        <v>36.12</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="H14">
         <v>86.16</v>
       </c>
       <c r="I14">
-        <v>87.26000000000001</v>
+        <v>87.26</v>
       </c>
       <c r="J14">
         <v>7.31</v>
@@ -3249,13 +3265,13 @@
         <v>-1.17</v>
       </c>
       <c r="R14">
-        <v>92.26000000000001</v>
+        <v>92.26</v>
       </c>
       <c r="S14">
-        <v>92.26000000000001</v>
+        <v>92.26</v>
       </c>
       <c r="T14">
-        <v>92.26000000000001</v>
+        <v>92.26</v>
       </c>
       <c r="U14">
         <v>0.75</v>
@@ -3264,7 +3280,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3281,7 +3297,7 @@
         <v>57.21</v>
       </c>
       <c r="F15">
-        <v>294.72</v>
+        <v>294.72000000000003</v>
       </c>
       <c r="G15">
         <v>21.51</v>
@@ -3302,10 +3318,10 @@
         <v>381.43</v>
       </c>
       <c r="M15">
-        <v>-86.70999999999999</v>
+        <v>-86.71</v>
       </c>
       <c r="N15">
-        <v>-86.70999999999999</v>
+        <v>-86.71</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3314,16 +3330,16 @@
         <v>6.03</v>
       </c>
       <c r="Q15">
-        <v>11.765</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="R15">
-        <v>-86.70999999999999</v>
+        <v>-86.71</v>
       </c>
       <c r="S15">
-        <v>-86.70999999999999</v>
+        <v>-86.71</v>
       </c>
       <c r="T15">
-        <v>-86.70999999999999</v>
+        <v>-86.71</v>
       </c>
       <c r="U15">
         <v>-0.54</v>
@@ -3332,7 +3348,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3382,7 +3398,7 @@
         <v>6.03</v>
       </c>
       <c r="Q16">
-        <v>11.765</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="R16">
         <v>250.85</v>
@@ -3400,7 +3416,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3429,7 +3445,7 @@
         <v>86.62</v>
       </c>
       <c r="J17">
-        <v>16.31</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="K17">
         <v>16.88</v>
@@ -3450,7 +3466,7 @@
         <v>6.03</v>
       </c>
       <c r="Q17">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R17">
         <v>55.6</v>
@@ -3468,7 +3484,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3527,16 +3543,16 @@
         <v>254.04</v>
       </c>
       <c r="T18">
-        <v>324.41</v>
+        <v>324.41000000000003</v>
       </c>
       <c r="U18">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V18">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3553,7 +3569,7 @@
         <v>57.06</v>
       </c>
       <c r="F19">
-        <v>269.1</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="G19">
         <v>72.89</v>
@@ -3568,7 +3584,7 @@
         <v>12.69</v>
       </c>
       <c r="K19">
-        <v>37.77</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="L19">
         <v>239.87</v>
@@ -3586,7 +3602,7 @@
         <v>6.03</v>
       </c>
       <c r="Q19">
-        <v>11.765</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="R19">
         <v>8.43</v>
@@ -3604,7 +3620,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3627,7 +3643,7 @@
         <v>121.15</v>
       </c>
       <c r="H20">
-        <v>148.36</v>
+        <v>148.36000000000001</v>
       </c>
       <c r="I20">
         <v>9</v>
@@ -3642,7 +3658,7 @@
         <v>353.43</v>
       </c>
       <c r="M20">
-        <v>37.77</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="N20">
         <v>52.25</v>
@@ -3654,7 +3670,7 @@
         <v>6.03</v>
       </c>
       <c r="Q20">
-        <v>11.765</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="R20">
         <v>52.25</v>
@@ -3672,7 +3688,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3698,7 +3714,7 @@
         <v>186.09</v>
       </c>
       <c r="I21">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="J21">
         <v>24.82</v>
@@ -3722,7 +3738,7 @@
         <v>6.03</v>
       </c>
       <c r="Q21">
-        <v>11.765</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="R21">
         <v>-818.63</v>
@@ -3746,14 +3762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3815,7 +3831,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3829,7 +3845,7 @@
         <v>43.95</v>
       </c>
       <c r="E2">
-        <v>67.06999999999999</v>
+        <v>67.069999999999993</v>
       </c>
       <c r="F2">
         <v>30.53</v>
@@ -3838,13 +3854,13 @@
         <v>-50.6</v>
       </c>
       <c r="H2">
-        <v>-1.12</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="I2">
         <v>-51.72</v>
       </c>
       <c r="J2">
-        <v>87.48999999999999</v>
+        <v>87.49</v>
       </c>
       <c r="K2">
         <v>-139.21</v>
@@ -3862,7 +3878,7 @@
         <v>-139.44</v>
       </c>
       <c r="P2">
-        <v>571.9400000000001</v>
+        <v>571.94000000000005</v>
       </c>
       <c r="Q2">
         <v>-2.52</v>
@@ -3877,18 +3893,18 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="B3">
-        <v>78.26000000000001</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="C3">
-        <v>78.26000000000001</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="D3">
-        <v>38.63</v>
+        <v>38.630000000000003</v>
       </c>
       <c r="E3">
         <v>55.44</v>
@@ -3924,7 +3940,7 @@
         <v>-97.48</v>
       </c>
       <c r="P3">
-        <v>571.9400000000001</v>
+        <v>571.94000000000005</v>
       </c>
       <c r="Q3">
         <v>-1.79</v>
@@ -3939,7 +3955,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -3986,7 +4002,7 @@
         <v>-100.4</v>
       </c>
       <c r="P4">
-        <v>580.6799999999999</v>
+        <v>580.67999999999995</v>
       </c>
       <c r="Q4">
         <v>-1.82</v>
@@ -4001,7 +4017,7 @@
         <v>-1.82</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -4063,7 +4079,7 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -4098,7 +4114,7 @@
         <v>-100.76</v>
       </c>
       <c r="L6">
-        <v>-136.61</v>
+        <v>-136.61000000000001</v>
       </c>
       <c r="M6">
         <v>-15.28</v>
@@ -4119,13 +4135,13 @@
         <v>-1.58</v>
       </c>
       <c r="S6">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="T6">
-        <v>-2.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -4142,7 +4158,7 @@
         <v>55.05</v>
       </c>
       <c r="F7">
-        <v>78.29000000000001</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="G7">
         <v>-67.75</v>
@@ -4187,15 +4203,15 @@
         <v>-7.84</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
       <c r="B8">
-        <v>79.54000000000001</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="C8">
-        <v>79.54000000000001</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="D8">
         <v>22.27</v>
@@ -4207,7 +4223,7 @@
         <v>23.61</v>
       </c>
       <c r="G8">
-        <v>-18.56</v>
+        <v>-18.559999999999999</v>
       </c>
       <c r="H8">
         <v>43.2</v>
@@ -4219,22 +4235,22 @@
         <v>42.29</v>
       </c>
       <c r="K8">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="L8">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="O8">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="P8">
-        <v>636.1900000000001</v>
+        <v>636.19000000000005</v>
       </c>
       <c r="Q8">
         <v>-0.36</v>
@@ -4249,7 +4265,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4311,7 +4327,7 @@
         <v>-1.91</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4358,7 +4374,7 @@
         <v>-101.52</v>
       </c>
       <c r="P10">
-        <v>612.4299999999999</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="Q10">
         <v>-1.75</v>
@@ -4373,15 +4389,15 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
       <c r="B11">
-        <v>93.45999999999999</v>
+        <v>93.46</v>
       </c>
       <c r="C11">
-        <v>93.45999999999999</v>
+        <v>93.46</v>
       </c>
       <c r="D11">
         <v>25.21</v>
@@ -4405,7 +4421,7 @@
         <v>34.35</v>
       </c>
       <c r="K11">
-        <v>-18.6</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="L11">
         <v>-379.42</v>
@@ -4435,15 +4451,15 @@
         <v>-6.84</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12">
-        <v>64.56999999999999</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="C12">
-        <v>64.56999999999999</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="D12">
         <v>6.49</v>
@@ -4455,7 +4471,7 @@
         <v>21.2</v>
       </c>
       <c r="G12">
-        <v>35.12</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="H12">
         <v>44.05</v>
@@ -4497,7 +4513,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -4514,7 +4530,7 @@
         <v>1.54</v>
       </c>
       <c r="F13">
-        <v>9.210000000000001</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="G13">
         <v>20.57</v>
@@ -4523,7 +4539,7 @@
         <v>15.05</v>
       </c>
       <c r="I13">
-        <v>35.62</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="J13">
         <v>21.18</v>
@@ -4559,7 +4575,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -4606,7 +4622,7 @@
         <v>15.51</v>
       </c>
       <c r="P14">
-        <v>640.8</v>
+        <v>640.79999999999995</v>
       </c>
       <c r="Q14">
         <v>0.24</v>
@@ -4621,18 +4637,18 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>95</v>
       </c>
       <c r="B15">
-        <v>84.84999999999999</v>
+        <v>84.85</v>
       </c>
       <c r="C15">
-        <v>84.84999999999999</v>
+        <v>84.85</v>
       </c>
       <c r="D15">
-        <v>17.56</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="E15">
         <v>55</v>
@@ -4656,7 +4672,7 @@
         <v>-7.4</v>
       </c>
       <c r="L15">
-        <v>-705.4299999999999</v>
+        <v>-705.43</v>
       </c>
       <c r="M15">
         <v>127.15</v>
@@ -4668,7 +4684,7 @@
         <v>-832.58</v>
       </c>
       <c r="P15">
-        <v>640.8</v>
+        <v>640.79999999999995</v>
       </c>
       <c r="Q15">
         <v>-2.1</v>
@@ -4683,15 +4699,15 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>96</v>
       </c>
       <c r="B16">
-        <v>66.98999999999999</v>
+        <v>66.989999999999995</v>
       </c>
       <c r="C16">
-        <v>66.98999999999999</v>
+        <v>66.989999999999995</v>
       </c>
       <c r="D16">
         <v>19.96</v>
@@ -4718,7 +4734,7 @@
         <v>29.95</v>
       </c>
       <c r="L16">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="M16">
         <v>-1.37</v>
@@ -4730,7 +4746,7 @@
         <v>5.72</v>
       </c>
       <c r="P16">
-        <v>1183.65</v>
+        <v>1183.6500000000001</v>
       </c>
       <c r="Q16">
         <v>0.05</v>
@@ -4745,7 +4761,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4777,7 +4793,7 @@
         <v>12.37</v>
       </c>
       <c r="K17">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L17">
         <v>1.95</v>
@@ -4807,7 +4823,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -4821,7 +4837,7 @@
         <v>22.5</v>
       </c>
       <c r="E18">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F18">
         <v>162.13</v>
@@ -4869,7 +4885,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -4892,7 +4908,7 @@
         <v>21.39</v>
       </c>
       <c r="H19">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="I19">
         <v>30.77</v>
@@ -4901,7 +4917,7 @@
         <v>12.01</v>
       </c>
       <c r="K19">
-        <v>18.76</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="L19">
         <v>15.71</v>
@@ -4919,19 +4935,19 @@
         <v>1286</v>
       </c>
       <c r="Q19">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R19">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S19">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T19">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -4993,15 +5009,15 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
       <c r="B21">
-        <v>66.29000000000001</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="C21">
-        <v>66.29000000000001</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="D21">
         <v>24.08</v>
@@ -5028,13 +5044,13 @@
         <v>14.85</v>
       </c>
       <c r="L21">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="O21">
         <v>27.75</v>
@@ -5055,7 +5071,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -5117,7 +5133,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -5128,19 +5144,19 @@
         <v>75.67</v>
       </c>
       <c r="D23">
-        <v>17.85</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E23">
         <v>1.68</v>
       </c>
       <c r="F23">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="G23">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H23">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I23">
         <v>41.21</v>
@@ -5152,13 +5168,13 @@
         <v>30.46</v>
       </c>
       <c r="L23">
-        <v>83.15000000000001</v>
+        <v>83.15</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>83.15000000000001</v>
+        <v>83.15</v>
       </c>
       <c r="O23">
         <v>78.61</v>
@@ -5179,7 +5195,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -5193,7 +5209,7 @@
         <v>30.29</v>
       </c>
       <c r="E24">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F24">
         <v>19.96</v>
@@ -5241,15 +5257,15 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
       <c r="B25">
-        <v>74.20999999999999</v>
+        <v>74.209999999999994</v>
       </c>
       <c r="C25">
-        <v>74.20999999999999</v>
+        <v>74.209999999999994</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -5273,7 +5289,7 @@
         <v>11.43</v>
       </c>
       <c r="K25">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L25">
         <v>3.35</v>
@@ -5285,7 +5301,7 @@
         <v>3.35</v>
       </c>
       <c r="O25">
-        <v>-2.03</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="P25">
         <v>1616.64</v>
@@ -5303,7 +5319,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -5353,30 +5369,30 @@
         <v>1616.64</v>
       </c>
       <c r="Q26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T26">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
       <c r="B27">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="C27">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="D27">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E27">
         <v>4.34</v>
@@ -5427,7 +5443,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -5444,16 +5460,16 @@
         <v>4.33</v>
       </c>
       <c r="F28">
-        <v>18.85</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G28">
-        <v>34.62</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="H28">
         <v>2.72</v>
       </c>
       <c r="I28">
-        <v>37.34</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="J28">
         <v>9.42</v>
@@ -5489,7 +5505,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -5503,7 +5519,7 @@
         <v>29.24</v>
       </c>
       <c r="E29">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F29">
         <v>37.57</v>
@@ -5518,7 +5534,7 @@
         <v>18.41</v>
       </c>
       <c r="J29">
-        <v>9.970000000000001</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K29">
         <v>8.44</v>
@@ -5551,7 +5567,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -5571,7 +5587,7 @@
         <v>7.97</v>
       </c>
       <c r="G30">
-        <v>34.55</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="H30">
         <v>5.01</v>
@@ -5580,7 +5596,7 @@
         <v>39.56</v>
       </c>
       <c r="J30">
-        <v>9.710000000000001</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="K30">
         <v>29.85</v>
@@ -5613,7 +5629,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -5645,19 +5661,19 @@
         <v>10.65</v>
       </c>
       <c r="K31">
-        <v>77.23999999999999</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="L31">
         <v>71.83</v>
       </c>
       <c r="M31">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N31">
-        <v>71.76000000000001</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="O31">
-        <v>71.76000000000001</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="P31">
         <v>1616.65</v>
@@ -5675,7 +5691,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -5737,7 +5753,7 @@
         <v>-1.32</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -5760,7 +5776,7 @@
         <v>-18.21</v>
       </c>
       <c r="H33">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="I33">
         <v>-13.52</v>
@@ -5784,7 +5800,7 @@
         <v>-12.42</v>
       </c>
       <c r="P33">
-        <v>161.67</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="Q33">
         <v>-0.77</v>
@@ -5799,7 +5815,7 @@
         <v>-0.77</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -5813,7 +5829,7 @@
         <v>22.69</v>
       </c>
       <c r="E34">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F34">
         <v>22.11</v>
@@ -5861,7 +5877,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -5881,10 +5897,10 @@
         <v>48.8</v>
       </c>
       <c r="G35">
-        <v>-36.63</v>
+        <v>-36.630000000000003</v>
       </c>
       <c r="H35">
-        <v>9.130000000000001</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="I35">
         <v>-27.5</v>
@@ -5905,7 +5921,7 @@
         <v>254.65</v>
       </c>
       <c r="O35">
-        <v>277.91</v>
+        <v>277.91000000000003</v>
       </c>
       <c r="P35">
         <v>1616.65</v>
@@ -5923,7 +5939,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -5937,7 +5953,7 @@
         <v>24.11</v>
       </c>
       <c r="E36">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F36">
         <v>20.72</v>
@@ -5952,7 +5968,7 @@
         <v>6.38</v>
       </c>
       <c r="J36">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K36">
         <v>3.93</v>
@@ -5985,18 +6001,18 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>117</v>
       </c>
       <c r="B37">
-        <v>69.65000000000001</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="C37">
-        <v>69.65000000000001</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="D37">
-        <v>36.91</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="E37">
         <v>7.18</v>
@@ -6047,7 +6063,7 @@
         <v>-1.706</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -6109,7 +6125,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -6120,7 +6136,7 @@
         <v>62.58</v>
       </c>
       <c r="D39">
-        <v>32.91</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="E39">
         <v>4.49</v>
@@ -6171,7 +6187,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -6182,10 +6198,10 @@
         <v>82.78</v>
       </c>
       <c r="D40">
-        <v>37.48</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="E40">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F40">
         <v>51.41</v>
@@ -6233,18 +6249,18 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
       <c r="B41">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C41">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D41">
-        <v>36.16</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="E41">
         <v>5.03</v>
@@ -6295,7 +6311,7 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -6357,15 +6373,15 @@
         <v>-38.1</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>123</v>
       </c>
       <c r="B43">
-        <v>91.06999999999999</v>
+        <v>91.07</v>
       </c>
       <c r="C43">
-        <v>91.06999999999999</v>
+        <v>91.07</v>
       </c>
       <c r="D43">
         <v>46.58</v>
@@ -6386,7 +6402,7 @@
         <v>-112.56</v>
       </c>
       <c r="J43">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K43">
         <v>-114.78</v>
@@ -6419,15 +6435,15 @@
         <v>-6.78</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>124</v>
       </c>
       <c r="B44">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="C44">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="D44">
         <v>50.49</v>
@@ -6481,7 +6497,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -6543,7 +6559,7 @@
         <v>-0.53</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -6560,7 +6576,7 @@
         <v>6.98</v>
       </c>
       <c r="F46">
-        <v>84.15000000000001</v>
+        <v>84.15</v>
       </c>
       <c r="G46">
         <v>-51.38</v>
@@ -6611,14 +6627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -6674,7 +6690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6730,7 +6746,7 @@
         <v>40.96</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6753,7 +6769,7 @@
         <v>25.83</v>
       </c>
       <c r="H3">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="I3">
         <v>14.85</v>
@@ -6765,10 +6781,10 @@
         <v>14.43</v>
       </c>
       <c r="L3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N3">
         <v>26.99</v>
@@ -6777,7 +6793,7 @@
         <v>16.84</v>
       </c>
       <c r="P3">
-        <v>73.01000000000001</v>
+        <v>73.010000000000005</v>
       </c>
       <c r="Q3">
         <v>1134.78</v>
@@ -6786,7 +6802,7 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6800,7 +6816,7 @@
         <v>11.97</v>
       </c>
       <c r="E4">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F4">
         <v>11.41</v>
@@ -6815,10 +6831,10 @@
         <v>14.73</v>
       </c>
       <c r="J4">
-        <v>19.33</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="K4">
-        <v>17.76</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="L4">
         <v>5.67</v>
@@ -6842,7 +6858,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6877,10 +6893,10 @@
         <v>17.52</v>
       </c>
       <c r="L5">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="M5">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="N5">
         <v>21.9</v>
@@ -6889,16 +6905,16 @@
         <v>16.66</v>
       </c>
       <c r="P5">
-        <v>78.09999999999999</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="Q5">
         <v>2593.85</v>
       </c>
       <c r="R5">
-        <v>16.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6954,7 +6970,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6962,7 +6978,7 @@
         <v>30.81</v>
       </c>
       <c r="C7">
-        <v>16.08</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="D7">
         <v>10.49</v>
@@ -6983,7 +6999,7 @@
         <v>26.24</v>
       </c>
       <c r="J7">
-        <v>-19.15</v>
+        <v>-19.149999999999999</v>
       </c>
       <c r="K7">
         <v>-12.52</v>
@@ -7010,7 +7026,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7036,7 +7052,7 @@
         <v>43.89</v>
       </c>
       <c r="I8">
-        <v>19.65</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="J8">
         <v>21.69</v>
@@ -7063,10 +7079,10 @@
         <v>2380.17</v>
       </c>
       <c r="R8">
-        <v>8.119999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7083,7 +7099,7 @@
         <v>-13.15</v>
       </c>
       <c r="F9">
-        <v>-16.99</v>
+        <v>-16.989999999999998</v>
       </c>
       <c r="G9">
         <v>25.45</v>
@@ -7101,7 +7117,7 @@
         <v>-57.79</v>
       </c>
       <c r="L9">
-        <v>-9.109999999999999</v>
+        <v>-9.11</v>
       </c>
       <c r="M9">
         <v>3.38</v>
@@ -7116,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2266.99</v>
+        <v>2266.9899999999998</v>
       </c>
       <c r="R9">
         <v>17.32</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -7130,19 +7146,19 @@
         <v>6.39</v>
       </c>
       <c r="C10">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D10">
         <v>-1.67</v>
       </c>
       <c r="E10">
-        <v>-4.31</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="F10">
         <v>-4.47</v>
       </c>
       <c r="G10">
-        <v>35.37</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="H10">
         <v>-26.08</v>
@@ -7160,7 +7176,7 @@
         <v>-6.37</v>
       </c>
       <c r="M10">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -7178,7 +7194,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7186,7 +7202,7 @@
         <v>5.7</v>
       </c>
       <c r="C11">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D11">
         <v>-2.06</v>
@@ -7204,16 +7220,16 @@
         <v>-36.04</v>
       </c>
       <c r="I11">
-        <v>-138.98</v>
+        <v>-138.97999999999999</v>
       </c>
       <c r="J11">
-        <v>-134.83</v>
+        <v>-134.83000000000001</v>
       </c>
       <c r="K11">
         <v>-82.7</v>
       </c>
       <c r="L11">
-        <v>-9.800000000000001</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="M11">
         <v>4.22</v>
@@ -7234,7 +7250,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7245,7 +7261,7 @@
         <v>1.23</v>
       </c>
       <c r="D12">
-        <v>-2.47</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="E12">
         <v>-17.13</v>
@@ -7263,10 +7279,10 @@
         <v>-258.08</v>
       </c>
       <c r="J12">
-        <v>-263.96</v>
+        <v>-263.95999999999998</v>
       </c>
       <c r="K12">
-        <v>-64.633</v>
+        <v>-64.632999999999996</v>
       </c>
       <c r="L12">
         <v>-28.4</v>
@@ -7287,10 +7303,10 @@
         <v>2541.77</v>
       </c>
       <c r="R12">
-        <v>34.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>34.340000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7298,7 +7314,7 @@
         <v>5.39</v>
       </c>
       <c r="C13">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D13">
         <v>-0.97</v>
@@ -7319,7 +7335,7 @@
         <v>-129.82</v>
       </c>
       <c r="J13">
-        <v>-156.39</v>
+        <v>-156.38999999999999</v>
       </c>
       <c r="K13">
         <v>-330.37</v>
@@ -7328,7 +7344,7 @@
         <v>-21.57</v>
       </c>
       <c r="M13">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -7343,10 +7359,10 @@
         <v>1248.49</v>
       </c>
       <c r="R13">
-        <v>8.390000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7375,7 +7391,7 @@
         <v>32.64</v>
       </c>
       <c r="J14">
-        <v>33.05</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="K14">
         <v>41.87</v>
@@ -7402,7 +7418,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -7455,10 +7471,10 @@
         <v>1745.85</v>
       </c>
       <c r="R15">
-        <v>537.1799999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>537.17999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -7469,7 +7485,7 @@
         <v>2.09</v>
       </c>
       <c r="D16">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E16">
         <v>1.55</v>
@@ -7490,10 +7506,10 @@
         <v>88.34</v>
       </c>
       <c r="K16">
-        <v>70.15000000000001</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="L16">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M16">
         <v>1.26</v>
@@ -7514,7 +7530,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -7534,7 +7550,7 @@
         <v>0.79</v>
       </c>
       <c r="G17">
-        <v>80.31999999999999</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="H17">
         <v>72.06</v>
@@ -7543,7 +7559,7 @@
         <v>28.19</v>
       </c>
       <c r="J17">
-        <v>64.76000000000001</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="K17">
         <v>26.18</v>
@@ -7570,7 +7586,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -7581,13 +7597,13 @@
         <v>0.37</v>
       </c>
       <c r="D18">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E18">
         <v>1.57</v>
       </c>
       <c r="F18">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G18">
         <v>28.57</v>
@@ -7620,13 +7636,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1099.63</v>
+        <v>1099.6300000000001</v>
       </c>
       <c r="R18">
         <v>18.52</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7682,12 +7698,12 @@
         <v>16.11</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C20">
         <v>4.03</v>
@@ -7738,7 +7754,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
